--- a/data/trans_bre/P1803-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Clase-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 4,42</t>
+          <t>-3,8; 3,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 7,56</t>
+          <t>-1,03; 7,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 78,03</t>
+          <t>-41,11; 65,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 66,68</t>
+          <t>-7,13; 66,19</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,71</t>
+          <t>1,53; 8,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,48</t>
+          <t>2,91; 10,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,37; 339,66</t>
+          <t>18,46; 356,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,31; 183,29</t>
+          <t>26,99; 164,85</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 7,68</t>
+          <t>-1,68; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,37; 0,81</t>
+          <t>-71,54; 0,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 224,29</t>
+          <t>-32,47; 202,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-93,58; 6,83</t>
+          <t>-92,53; 7,42</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,9</t>
+          <t>-0,37; 3,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,05</t>
+          <t>-3,4; 5,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 106,79</t>
+          <t>-7,45; 99,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 81,81</t>
+          <t>-37,36; 80,11</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,93</t>
+          <t>-1,32; 2,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-29,36; 124,89</t>
+          <t>-31,24; 112,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,84; 82,74</t>
+          <t>-25,84; 83,52</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 2,87</t>
+          <t>-2,82; 2,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 4,13</t>
+          <t>-7,71; 3,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-46,03; 169,18</t>
+          <t>-47,61; 138,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,57; 249,83</t>
+          <t>-62,11; 196,32</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,11</t>
+          <t>-0,06; 2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 1,77</t>
+          <t>-28,65; 1,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 52,72</t>
+          <t>-1,26; 50,76</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-73,16; 20,79</t>
+          <t>-76,73; 19,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1803-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
